--- a/data/income_statement/2digits/total/68_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/68_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>68-Real estate activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>68-Real estate activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4519584.43029</v>
+        <v>4519584.430290001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4490455.52444</v>
+        <v>4490566.880270001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6550879.093069999</v>
+        <v>6552003.46392</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7338876.49739</v>
+        <v>7365736.799329999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9460740.666639999</v>
+        <v>9641862.30735</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12349554.69826</v>
+        <v>12803951.39621</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12393109.4829</v>
+        <v>13478529.88692</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16043483.83108</v>
+        <v>16090683.03897</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>19804171.18752</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27527585.37007</v>
+        <v>27847336.40183</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32927015.80001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33311129.53093</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>38681720.933</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4175955.25588</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4077004.54861</v>
+        <v>4077115.90444</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5955218.76817</v>
+        <v>5956341.004170001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6790724.294090001</v>
+        <v>6816977.878420001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8666866.69826</v>
+        <v>8839601.62926</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11347392.60889</v>
+        <v>11743903.04262</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>11572885.8517</v>
+        <v>12533853.54229</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14969772.01093</v>
+        <v>15015292.31528</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>18463962.23989</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25843836.11601</v>
+        <v>26162053.50437</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>31127321.898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>31484758.24244</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>36838175.092</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>46681.30461000001</v>
+        <v>46681.30460999999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>50194.46438</v>
@@ -1040,70 +956,80 @@
         <v>136661.13647</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>192611.50937</v>
+        <v>197325.08131</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>255093.62569</v>
+        <v>261400.15265</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>203349.27592</v>
+        <v>216336.91815</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>171205.05736</v>
+        <v>171227.59958</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>315714.8545900001</v>
+        <v>315714.85459</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>402146.28269</v>
+        <v>402235.75469</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>427947.1045900001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>448263.61875</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>407449.237</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>296947.8697999999</v>
+        <v>296947.8698</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>363256.51145</v>
+        <v>363256.5114499999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>460491.2744999999</v>
+        <v>460493.40935</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>411491.06683</v>
+        <v>412097.78444</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>601262.45901</v>
+        <v>604935.59678</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>747068.4636799999</v>
+        <v>798648.2009399999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>616874.35528</v>
+        <v>728339.42648</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>902506.7627899999</v>
+        <v>904163.12411</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1024494.09304</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1281602.97137</v>
+        <v>1283047.14277</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1371746.79742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1378107.66974</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1436096.604</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>80156.05098</v>
@@ -1112,76 +1038,86 @@
         <v>71434.45928</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>85312.80074999999</v>
+        <v>85323.86325000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>91407.95665000001</v>
+        <v>91413.95664999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>98130.38141</v>
+        <v>102979.65096</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>187147.25823</v>
+        <v>191939.81132</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>253988.09178</v>
+        <v>272289.65068</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>390314.42504</v>
+        <v>390980.45225</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>584862.17592</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1002536.01586</v>
+        <v>1002867.94298</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1187176.25782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1187957.82555</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2892245.354</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>41446.63093</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>38541.05366</v>
+        <v>38541.05366000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>40622.89220999999</v>
+        <v>40633.95470999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>46732.18698</v>
+        <v>46738.18697999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>58701.67458</v>
+        <v>58731.48045</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>118196.6483</v>
+        <v>122578.25753</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>158072.47422</v>
+        <v>166159.86335</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>274333.01841</v>
+        <v>274998.73909</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>349574.11779</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>647250.7078699999</v>
+        <v>647582.6349900002</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>665420.8850600001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>666174.9665500001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1363469.449</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>31198.71929</v>
@@ -1199,31 +1135,36 @@
         <v>28939.04648</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>53328.19094</v>
+        <v>53737.02717</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>81983.82980000001</v>
+        <v>88562.65091</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>89342.26578000002</v>
+        <v>89342.57230999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>201221.73139</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>299160.8439099999</v>
+        <v>299160.8439100001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>447581.20451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>447608.69075</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1417423.185</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7510.70076</v>
+        <v>7510.700760000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>12905.50666</v>
@@ -1235,13 +1176,13 @@
         <v>26260.83944</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>10489.66035</v>
+        <v>15309.12403</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15622.41899</v>
+        <v>15624.52662</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>13931.78776</v>
+        <v>17567.13642</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>26639.14085</v>
@@ -1250,94 +1191,109 @@
         <v>34066.32674</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>56124.46408</v>
+        <v>56124.46408000001</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>74174.16825</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>111352.72</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4439428.379310001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4419021.06516</v>
+        <v>4419132.42099</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6465566.29232</v>
+        <v>6466679.600669999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7247468.540740001</v>
+        <v>7274322.842680001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9362610.285230001</v>
+        <v>9538882.65639</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12162407.44003</v>
+        <v>12612011.58489</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12139121.39112</v>
+        <v>13206240.23624</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15653169.40604</v>
+        <v>15699702.58672</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>19219309.0116</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>26525049.35421</v>
+        <v>26844468.45885</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31739839.54219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32123171.70538</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>35789475.579</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2699525.64235</v>
+        <v>2699525.642349999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2516230.77932</v>
+        <v>2516300.66209</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3678524.09596</v>
+        <v>3679587.58692</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4109466.757269999</v>
+        <v>4135125.57984</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5123667.8415</v>
+        <v>5267337.05817</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6889742.5718</v>
+        <v>7052372.11816</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6772568.466120001</v>
+        <v>7358658.55838</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8806404.48346</v>
+        <v>8837440.52981</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11310589.55896</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>15831043.6149</v>
+        <v>16137201.03687</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>19116711.17519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19396210.61261</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22687516.831</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>405957.5356</v>
@@ -1349,37 +1305,42 @@
         <v>261237.46611</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>351022.02284</v>
+        <v>375550.4581999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>358877.00854</v>
+        <v>416306.0836300001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>748990.03334</v>
+        <v>749148.7328</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>363289.57576</v>
+        <v>392015.22393</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>747074.67826</v>
+        <v>747271.7092099999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>930793.78608</v>
+        <v>930793.7860799999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1467018.07597</v>
+        <v>1473203.68642</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1810254.27421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1837544.58648</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1839962.952</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>516155.78489</v>
+        <v>516155.7848900001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>586762.6788400001</v>
@@ -1388,73 +1349,83 @@
         <v>847823.1127899999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>951975.77325</v>
+        <v>952650.8660400001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1262793.31821</v>
+        <v>1344724.63581</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1690837.67302</v>
+        <v>1782852.13114</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1695535.48048</v>
+        <v>2015748.38754</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1900557.72253</v>
+        <v>1912158.57756</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2214482.75228</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3302521.56829</v>
+        <v>3594409.67636</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3825175.83894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4008735.05382</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5473299.923</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1749757.20463</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1800936.06619</v>
+        <v>1801005.94896</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2526111.49962</v>
+        <v>2527174.99058</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2756141.53045</v>
+        <v>2756596.82487</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3440080.57776</v>
+        <v>3444389.40174</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4279313.35286</v>
+        <v>4349523.931270001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4584251.519880001</v>
+        <v>4813250.50251</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6016022.44408</v>
+        <v>6035179.004450001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>7974518.94557</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>10890547.2012</v>
+        <v>10898594.97781</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13326796.25749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13394290.57997</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>15161415.624</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>27655.11723</v>
@@ -1466,112 +1437,127 @@
         <v>43352.01744</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>50327.43073000001</v>
+        <v>50327.43073</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>61916.93699</v>
+        <v>61916.93699000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>170601.51258</v>
+        <v>170847.32295</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>129491.89</v>
+        <v>137644.4444</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>142749.63859</v>
+        <v>142831.23859</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>190794.07503</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>170956.76944</v>
+        <v>170992.69628</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>154484.80455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>155640.39234</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>212838.332</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1739902.73696</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1902790.28584</v>
+        <v>1902831.7589</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2787042.196359999</v>
+        <v>2787092.01375</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3138001.78347</v>
+        <v>3139197.26284</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4238942.44373</v>
+        <v>4271545.59822</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5272664.868229999</v>
+        <v>5559639.46673</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5366552.925000001</v>
+        <v>5847581.67786</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6846764.922580001</v>
+        <v>6862262.056910001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>7908719.452640001</v>
+        <v>7908719.45264</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10694005.73931</v>
+        <v>10707267.42198</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>12623128.367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12726961.09277</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>13101958.748</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1100921.69771</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1199593.83942</v>
+        <v>1199633.46162</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1646230.58117</v>
+        <v>1646232.14727</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1880749.22302</v>
+        <v>1881045.50307</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2284475.301</v>
+        <v>2320776.36082</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2683916.93437</v>
+        <v>2851658.05311</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2830399.367850001</v>
+        <v>3197583.46244</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3644019.33764</v>
+        <v>3672398.048789999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3928962.61459</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5342138.84001</v>
+        <v>5356955.68602</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5906544.28378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6003124.20284</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6620472.36</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>602.36682</v>
@@ -1589,13 +1575,13 @@
         <v>2978.29613</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>935.87354</v>
+        <v>935.8735399999999</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>12498.78796</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2568.35643</v>
+        <v>2569.14893</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>17713.07753</v>
@@ -1604,13 +1590,18 @@
         <v>20319.14855</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>56967.4321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>56977.93169999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>15054.157</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>120698.65513</v>
@@ -1622,112 +1613,127 @@
         <v>171848.94151</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>234387.12171</v>
+        <v>234427.00889</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>256538.64584</v>
+        <v>272304.39602</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>308074.87902</v>
+        <v>364684.07618</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>318790.76136</v>
+        <v>408089.93092</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>494494.6045</v>
+        <v>494968.00496</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>597446.3486400001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>754122.0755599999</v>
+        <v>757539.1103300001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>980124.13653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1009914.14108</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1170756.478</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>979620.67576</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1091094.46134</v>
+        <v>1091134.08354</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1473397.28666</v>
+        <v>1473398.85276</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1624400.40483</v>
+        <v>1624656.7977</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2024958.35903</v>
+        <v>2045493.66867</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2374906.18181</v>
+        <v>2486038.10339</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2499109.81853</v>
+        <v>2776994.74356</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3146956.37671</v>
+        <v>3174860.8949</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3313803.18842</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4567697.615900001</v>
+        <v>4579097.427139999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4869452.71515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4936232.130059999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5434661.725</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>638981.03925</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>703196.4464199999</v>
+        <v>703198.2972799999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1140811.61519</v>
+        <v>1140859.86648</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1257252.56045</v>
+        <v>1258151.75977</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1954467.14273</v>
+        <v>1950769.2374</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2588747.93386</v>
+        <v>2707981.413619999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2536153.55715</v>
+        <v>2649998.21542</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3202745.58494</v>
+        <v>3189864.00812</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3979756.838049999</v>
+        <v>3979756.83805</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5351866.8993</v>
+        <v>5350311.73596</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6716584.083220001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6723836.889930001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6481486.388</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1417048.26884</v>
@@ -1736,37 +1742,42 @@
         <v>1407318.70031</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1643780.36572</v>
+        <v>1643773.93975</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1758529.50382</v>
+        <v>1762528.89639</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2722883.91959</v>
+        <v>2796267.93973</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3327154.93954</v>
+        <v>3493109.025099999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4454751.58369</v>
+        <v>4770589.18891</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4885508.79197</v>
+        <v>5278251.29878</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>5503208.414270001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>17660452.81189</v>
+        <v>17672850.3394</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15292580.17001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>15302781.31974</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>19017013.685</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8101.091640000001</v>
@@ -1781,16 +1792,16 @@
         <v>21787.89114</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>88037.09157</v>
+        <v>88376.24024000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>77302.25696</v>
+        <v>77852.84696000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>105946.47228</v>
+        <v>138447.10155</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>266442.71167</v>
+        <v>642110.08112</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>201945.86427</v>
@@ -1801,14 +1812,19 @@
       <c r="M26" s="48" t="n">
         <v>341290.66149</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>369579.956</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>6192.41902</v>
+        <v>6192.419019999999</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>47741.91842</v>
@@ -1817,19 +1833,19 @@
         <v>60065.99411</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>79832.21335999999</v>
+        <v>79832.21335999998</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>82010.55723999999</v>
+        <v>82010.55724000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>63650.71057000001</v>
+        <v>63796.76218000001</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>42544.44978</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>56086.25322</v>
+        <v>57159.2348</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>269155.03173</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>872737.26122</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>190785.981</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>216111.51959</v>
@@ -1856,43 +1877,48 @@
         <v>152478.90559</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>186845.59491</v>
+        <v>187724.13457</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>183370.27327</v>
+        <v>188345.95272</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>271741.81598</v>
+        <v>306297.15912</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>302821.53986</v>
+        <v>344748.30593</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>434317.2152900001</v>
+        <v>446501.04353</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>475728.06838</v>
+        <v>475728.0683800001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1286570.52725</v>
+        <v>1286587.10827</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2273481.1149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2275132.14681</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3272389.087</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2127.65127</v>
+        <v>2127.651269999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3116.71127</v>
+        <v>3116.711270000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2448.743060000001</v>
+        <v>2448.74306</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>4509.99603</v>
@@ -1901,28 +1927,33 @@
         <v>4508.985009999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6343.34028</v>
+        <v>6582.59558</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2253.15132</v>
+        <v>2257.10892</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5189.20956</v>
+        <v>5189.54201</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>4419.715099999999</v>
+        <v>4419.7151</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>15669.47804</v>
+        <v>15671.56335</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>21843.84309</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>12469.917</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>17994.46804</v>
@@ -1937,52 +1968,57 @@
         <v>19727.41496</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>25279.01205</v>
+        <v>25310.7702</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>33411.36509</v>
+        <v>33562.46599</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>26907.34642</v>
+        <v>28389.27748</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>44704.31191</v>
+        <v>44993.65287000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>93874.83661999999</v>
+        <v>93874.83662</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>92809.88355999999</v>
+        <v>92810.66589999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>142308.63796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>142311.58654</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>111448.763</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>23814.78075</v>
+        <v>23814.78075000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>9486.414709999999</v>
+        <v>9486.414710000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>36680.62836</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>47334.72833</v>
+        <v>47340.17507</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>443634.11206</v>
+        <v>499908.65462</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>277460.45632</v>
+        <v>280680.02273</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>386212.92845</v>
+        <v>387926.94332</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>188853.35719</v>
@@ -1991,16 +2027,21 @@
         <v>79553.13264999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>253278.23091</v>
+        <v>253284.127</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>345115.5458200001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>345115.5458199999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>648629.628</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>915902.75099</v>
@@ -2012,34 +2053,39 @@
         <v>1126461.52572</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1103728.80339</v>
+        <v>1106745.78333</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1623987.5158</v>
+        <v>1635418.02136</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2207973.0494</v>
+        <v>2343980.86273</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3138204.19858</v>
+        <v>3341890.49867</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3408979.00163</v>
+        <v>3411462.03688</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3792003.594570001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14139947.49077</v>
+        <v>14152734.07468</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9934207.052680001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9937517.122700002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>13200474.278</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>788.85677</v>
@@ -2054,7 +2100,7 @@
         <v>20.64323</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>657.9915299999999</v>
+        <v>657.99153</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>161.12455</v>
@@ -2066,7 +2112,7 @@
         <v>73366.46901999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>55882.68206</v>
+        <v>55882.68205999999</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>16470.85043</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>14975.716</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1703.601</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2377.82938</v>
@@ -2096,7 +2147,7 @@
         <v>223.94508</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>4228.079930000001</v>
+        <v>4228.07993</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>184.14181</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>121.21112</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>134.711</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>223636.90139</v>
@@ -2126,37 +2182,42 @@
         <v>206361.6114</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>235954.22315</v>
+        <v>235947.79718</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>294703.32639</v>
+        <v>294801.75262</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>271174.43598</v>
+        <v>271506.82173</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>384882.7404600001</v>
+        <v>375967.1053299999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>409383.4623399999</v>
+        <v>443907.4686</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>407161.8733100001</v>
+        <v>408207.49219</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>530453.17638</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1097906.41429</v>
+        <v>1097492.01313</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1346499.12573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1351736.22495</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1209397.763</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1365314.32789</v>
@@ -2168,40 +2229,45 @@
         <v>1785071.24786</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1140398.26769</v>
+        <v>1142101.05375</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2798606.77018</v>
+        <v>2887075.34581</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2313190.565769999</v>
+        <v>2535638.78163</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4180241.44978</v>
+        <v>4615576.707470001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5840861.40953</v>
+        <v>5846550.11589</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>6847386.289809999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>21965055.73857</v>
+        <v>21977033.04941</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14888601.38526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>14904286.47687</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>36861174.423</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5176.54244</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5462.667539999999</v>
+        <v>5462.667540000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>2963.37881</v>
@@ -2213,28 +2279,33 @@
         <v>3336.93642</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9962.51914</v>
+        <v>10933.56891</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1994.13131</v>
+        <v>2715.029</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>8050.59456</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>9895.012020000002</v>
+        <v>9895.01202</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14930.64704</v>
+        <v>14933.11368</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>13594.42242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23939.14825</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>29450.847</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>50765.72484</v>
@@ -2246,19 +2317,19 @@
         <v>82955.11300999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>55429.66865999999</v>
+        <v>55429.66866</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>69227.52859999999</v>
+        <v>69241.18216</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>84852.5245</v>
+        <v>85385.78857999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>70899.9605</v>
+        <v>73960.66825999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>152377.03402</v>
+        <v>151839.6233900001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>154213.58567</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>217174.25807</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>174311.55</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>7567.702000000001</v>
+        <v>7567.702</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>1951.27828</v>
@@ -2285,73 +2361,83 @@
         <v>26882.70973000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>42004.65618999999</v>
+        <v>42004.65619</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>41194.41748</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>59491.55673</v>
+        <v>63130.43361</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>43217.1016</v>
+        <v>44622.76719999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>38257.85445000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>41259.31329</v>
+        <v>41259.31329000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>123814.59079</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>84162.18481000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>84162.18480999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>24561.019</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1218163.18133</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>854772.2047199998</v>
+        <v>854772.2047199999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1437423.24004</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>882323.90347</v>
+        <v>883995.4793900002</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2555661.35431</v>
+        <v>2642774.27982</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1994332.7268</v>
+        <v>2187976.51966</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3799920.82498</v>
+        <v>4223087.16482</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5279380.893499999</v>
+        <v>5285563.0296</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6274288.143209999</v>
+        <v>6274288.14321</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>21229395.29453</v>
+        <v>21241369.8279</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13809577.86975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13814053.57692</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>28706266.984</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>894.80661</v>
@@ -2369,13 +2455,13 @@
         <v>2270.6064</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4571.714800000001</v>
+        <v>5041.20046</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>49989.59116</v>
+        <v>50576.29642</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>78100.82403999999</v>
+        <v>78100.82404000001</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>55547.1153</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>12340.00024</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3430.872</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>58.42271000000001</v>
@@ -2411,7 +2502,7 @@
         <v>2688.91046</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>32.93410000000001</v>
+        <v>32.9341</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>18.2449</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0.7639300000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.791</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>82687.94795999999</v>
+        <v>82687.94796</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>112049.35122</v>
@@ -2441,37 +2537,42 @@
         <v>234391.41786</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>155886.75222</v>
+        <v>155917.96236</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>126902.04096</v>
+        <v>128244.03752</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>157290.61334</v>
+        <v>180482.35995</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>214186.90613</v>
+        <v>220581.84767</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>284675.96406</v>
+        <v>284719.94495</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>312149.05232</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>428090.7448400001</v>
+        <v>428091.05567</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>751751.8860400001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>752616.5446499999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7923089.36</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>543974.9659300001</v>
+        <v>543974.9659299999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>507202.32703</v>
@@ -2480,34 +2581,39 @@
         <v>881510.6026299999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>801401.4704300001</v>
+        <v>801479.44209</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1457615.52855</v>
+        <v>1464975.17874</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1483916.0919</v>
+        <v>1521602.63184</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1963900.13244</v>
+        <v>2016866.65834</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2372899.15822</v>
+        <v>2374411.83288</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2899422.9821</v>
+        <v>2899422.982100001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8300533.757590001</v>
+        <v>8300864.50962</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8066185.534450001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8069388.438189999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>12143029.872</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>286080.68486</v>
@@ -2519,34 +2625,39 @@
         <v>549638.72399</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>525307.39149</v>
+        <v>525385.36315</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>752301.91145</v>
+        <v>759661.56164</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>793998.4782700001</v>
+        <v>822481.6934699999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>920858.5570700001</v>
+        <v>971799.9895399999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1269765.19879</v>
+        <v>1270640.37001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1779655.92589</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5522380.529119999</v>
+        <v>5522711.281149999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5718379.830010001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5721142.9835</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>7628820.189</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>257894.28107</v>
@@ -2555,7 +2666,7 @@
         <v>202370.56154</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>331871.8786400001</v>
+        <v>331871.87864</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>276094.07894</v>
@@ -2564,13 +2675,13 @@
         <v>705313.6170999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>689917.6136300002</v>
+        <v>699120.93837</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1043041.57537</v>
+        <v>1045066.6688</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1103133.95943</v>
+        <v>1103771.46287</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1119767.05621</v>
@@ -2579,91 +2690,106 @@
         <v>2778153.22847</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2347805.70444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2348245.45469</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4514209.683</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>146740.01427</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>596899.1585</v>
+        <v>596901.0093599999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>118010.13042</v>
+        <v>118051.95574</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1073982.32615</v>
+        <v>1077100.16032</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>421128.76359</v>
+        <v>394986.65258</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2118796.21573</v>
+        <v>2143849.02525</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>846763.55862</v>
+        <v>788144.0385199999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-125506.19084</v>
+        <v>247153.35813</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-263844.01959</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-7253269.78497</v>
+        <v>-7254735.48367</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-945622.66648</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-947056.70539</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-23505704.222</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>113427.31209</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>74357.06053</v>
+        <v>74357.06052999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>95392.58936999999</v>
+        <v>95392.58937000002</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>322703.82291</v>
+        <v>322717.10873</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>387420.51009</v>
+        <v>391458.53055</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>359820.58181</v>
+        <v>364342.50636</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>457210.15739</v>
+        <v>469636.0304299999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>511184.15482</v>
+        <v>511687.90413</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>501596.75109</v>
+        <v>501596.7510900001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1199382.455</v>
+        <v>1199702.02067</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1299586.87351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1300952.97464</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1845915.943</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>16643.46722</v>
@@ -2678,16 +2804,16 @@
         <v>3273.6798</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4713.523630000001</v>
+        <v>4757.9883</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>20927.86413</v>
+        <v>21418.57633</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17699.66316</v>
+        <v>18357.67263</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5295.12144</v>
+        <v>5295.121440000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>21167.30302</v>
@@ -2696,16 +2822,21 @@
         <v>12427.24665</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6756.948</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6762.28162</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>18481.365</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>96783.84487</v>
+        <v>96783.84486999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>72075.54925999999</v>
@@ -2714,76 +2845,86 @@
         <v>71879.10340000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>319430.14311</v>
+        <v>319443.42893</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>382706.98646</v>
+        <v>386700.5422500001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>338892.71768</v>
+        <v>342923.93003</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>439510.49423</v>
+        <v>451278.3577999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>505889.03338</v>
+        <v>506392.7826899999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>480429.44807</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1186955.20835</v>
+        <v>1187274.77402</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1292829.92551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1294190.69302</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1827434.578</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>98876.03819999998</v>
+        <v>98876.03820000002</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>79480.22592</v>
+        <v>79480.22591999998</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>417674.26533</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>222394.92881</v>
+        <v>222414.56862</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>261300.49071</v>
+        <v>262140.74315</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>570792.95555</v>
+        <v>574630.71464</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>324211.04265</v>
+        <v>339640.43785</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>597063.57351</v>
+        <v>616073.6844800001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1069243.07863</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1273572.1083</v>
+        <v>1274118.78226</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>929610.29472</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>931595.07381</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>872649.503</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9310.311780000002</v>
+        <v>9310.31178</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>3826.55513</v>
@@ -2813,19 +2954,24 @@
         <v>19838.8676</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5262.14987</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5266.9732</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10529.318</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6219.328</v>
+        <v>6219.328000000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7283.030409999999</v>
+        <v>7283.03041</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>12368.44592</v>
@@ -2834,34 +2980,39 @@
         <v>12085.15816</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7626.008449999999</v>
+        <v>7668.26637</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14025.35619</v>
+        <v>16020.57643</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9929.010880000002</v>
+        <v>11632.5552</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>37606.55262</v>
+        <v>37694.97600000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>20623.12348999999</v>
+        <v>20623.12349</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>244604.07724</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>35209.88879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>35260.54185</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>64544.06</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>83346.39842</v>
+        <v>83346.39841999998</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>68370.64038</v>
@@ -2870,148 +3021,166 @@
         <v>397980.82292</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>204467.04666</v>
+        <v>204486.68647</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>240436.46898</v>
+        <v>241234.4635</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>548864.2492199999</v>
+        <v>550706.78807</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>305873.80612</v>
+        <v>319599.657</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>542318.6059200001</v>
+        <v>561240.2935100001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1034590.72871</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1009129.16346</v>
+        <v>1009675.83742</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>889138.2560599999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>891067.5587599999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>797576.125</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>161291.28816</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>591775.99311</v>
+        <v>591777.84397</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-204271.54554</v>
+        <v>-204229.72022</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1174291.22025</v>
+        <v>1177402.70043</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>547248.7829700001</v>
+        <v>524304.43998</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1907823.84199</v>
+        <v>1933560.81697</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>979762.6733600002</v>
+        <v>918139.6311</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-211385.6095300001</v>
+        <v>142767.5777800001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-831490.3471300001</v>
+        <v>-831490.34713</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-7327459.438270002</v>
+        <v>-7329152.24526</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-575646.0876900002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-577698.8045600002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-22532437.782</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>141930.71389</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>126618.69999</v>
+        <v>126621.18012</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>169216.83072</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>241374.22095</v>
+        <v>241399.6265</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>263412.74897</v>
+        <v>264475.10314</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>359831.86057</v>
+        <v>360608.2153100001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>381929.59594</v>
+        <v>416423.11352</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>476044.9686200001</v>
+        <v>476101.80619</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>494399.7248800001</v>
+        <v>494399.72488</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>604757.07129</v>
+        <v>605861.00677</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>664638.9553500002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>671680.3092100001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>658296.008</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>19360.57427</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>465157.2931199999</v>
+        <v>465156.66385</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-373488.37626</v>
+        <v>-373446.55094</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>932916.9993</v>
+        <v>936003.07393</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>283836.034</v>
+        <v>259829.33684</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1547991.98142</v>
+        <v>1572952.60166</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>597833.07742</v>
+        <v>501716.51758</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-687430.57815</v>
+        <v>-333334.22841</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-1325890.07201</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-7932216.50956</v>
+        <v>-7935013.25203</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1240285.04304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1249379.11377</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-23190733.79</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5947</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6614</v>
+        <v>6615</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7143</v>
+        <v>7145</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7444</v>
+        <v>7455</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>8493</v>
+        <v>8518</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9392</v>
+        <v>9454</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9203</v>
+        <v>9362</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9982</v>
+        <v>10071</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>11129</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>11954</v>
+        <v>12578</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>12616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>13780</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>14983</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>